--- a/biology/Botanique/Rosace_(architecture)/Rosace_(architecture).xlsx
+++ b/biology/Botanique/Rosace_(architecture)/Rosace_(architecture).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En architecture et en décoration, une rosace ou rose est une ouverture (baie) en forme de rose dans un mur, dans une cloison, dans un garde-corps, dans une séparation bâtie qui délimite un espace. Ces ouvertures sont destinées à fournir le jour mais pas la vue. La rosace est préalablement aussi l'élément de décor sculpté, sans aucune ouverture. Ces éléments présentent une forme circulaire symétrique centrée avec des portions de courbes. En histoire de l'art, c'est un grand vitrail, soit ensemble de vitraux de forme circulaire décorant une église[1]. 
-Historiquement, le mot « rosace » a été réservé formellement au décor sculpté, au dessin ouvragé en ornement sur une paroi, et le mot « rose » à une baie en « forme de fleur[2] ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En architecture et en décoration, une rosace ou rose est une ouverture (baie) en forme de rose dans un mur, dans une cloison, dans un garde-corps, dans une séparation bâtie qui délimite un espace. Ces ouvertures sont destinées à fournir le jour mais pas la vue. La rosace est préalablement aussi l'élément de décor sculpté, sans aucune ouverture. Ces éléments présentent une forme circulaire symétrique centrée avec des portions de courbes. En histoire de l'art, c'est un grand vitrail, soit ensemble de vitraux de forme circulaire décorant une église. 
+Historiquement, le mot « rosace » a été réservé formellement au décor sculpté, au dessin ouvragé en ornement sur une paroi, et le mot « rose » à une baie en « forme de fleur ».
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Histoire et origines</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'origine de la fenêtre ronde est l'oculus (œil) de la Rome antique, dont la symbolique était solaire. On trouvait généralement un large oculus à l'horizontale au sommet des coupoles, comme au Panthéon de Rome pour l’exemple le plus célèbre, et également au Saint-Sépulcre de Jérusalem. Mais il y en avait aussi sous forme de fenêtres rondes verticales, de diamètre variable, dans les murs de nombreux bâtiments. Les églises paléochrétiennes de l'Antiquité tardive et du Haut Moyen Âge sont parfois dotées d'oculi qui préfigurent les rosaces médiévales par leur disposition[3]. Les remplages de fenêtre avec des claustras en matériaux divers (bois, métal, mais aussi fréquemment en pierre), dont l'objectif pouvait être de porter des vitres qui étaient de petite dimension à l'époque, se développent également dans l'Antiquité, mais peu d'exemples sont parvenus jusqu'à nos jours. Dans l'architecture byzantine, on a des exemples de remplages de fenêtres en pierre percée.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'origine de la fenêtre ronde est l'oculus (œil) de la Rome antique, dont la symbolique était solaire. On trouvait généralement un large oculus à l'horizontale au sommet des coupoles, comme au Panthéon de Rome pour l’exemple le plus célèbre, et également au Saint-Sépulcre de Jérusalem. Mais il y en avait aussi sous forme de fenêtres rondes verticales, de diamètre variable, dans les murs de nombreux bâtiments. Les églises paléochrétiennes de l'Antiquité tardive et du Haut Moyen Âge sont parfois dotées d'oculi qui préfigurent les rosaces médiévales par leur disposition. Les remplages de fenêtre avec des claustras en matériaux divers (bois, métal, mais aussi fréquemment en pierre), dont l'objectif pouvait être de porter des vitres qui étaient de petite dimension à l'époque, se développent également dans l'Antiquité, mais peu d'exemples sont parvenus jusqu'à nos jours. Dans l'architecture byzantine, on a des exemples de remplages de fenêtres en pierre percée.
 Indépendamment des fenêtres, les motifs géométriques de rosaces, parfois élaborés, sont très répandus dans les mosaïques romaines antiques.
 			L'oculus sommital du Panthéon de Rome.
 			Oculus de la basilique Sainte-Marie-Majeure, Rome, Ve siècle (les vitraux sont plus récents).
@@ -535,7 +549,7 @@
 			L'église Saint-Michel-de-Lillo d'Oviedo, érigée vers 848.
 			Église Saint-Michel-de-Lillo d'Oviedo, fenêtre à remplage de pierre, avec une rosace.
 			Église Saint-Michel-de-Lillo d'Oviedo, oculus avec rosace.
-C'est surtout avec l'architecture romane, à partir du XIe siècle, que les rosaces en pierre vont prendre de l'ampleur et connaitre leur plein développement, avec de nombreux et beaux exemples parvenus jusqu'à nous, notamment en France, en Italie et en Allemagne dans un premier temps, puis dans toute l'Europe. Cet art atteindra son apogée dans l'architecture gothique, avec des diamètres pouvant devenir considérables. L'évolution des prouesses techniques et l'imagination des architectes expliquent qu'au fil des décennies, « le dessin se complique autour de l'oculus, pour faire place à d'extraordinaires kaléidoscopes mystiques[4] ».
+C'est surtout avec l'architecture romane, à partir du XIe siècle, que les rosaces en pierre vont prendre de l'ampleur et connaitre leur plein développement, avec de nombreux et beaux exemples parvenus jusqu'à nous, notamment en France, en Italie et en Allemagne dans un premier temps, puis dans toute l'Europe. Cet art atteindra son apogée dans l'architecture gothique, avec des diamètres pouvant devenir considérables. L'évolution des prouesses techniques et l'imagination des architectes expliquent qu'au fil des décennies, « le dessin se complique autour de l'oculus, pour faire place à d'extraordinaires kaléidoscopes mystiques ».
 </t>
         </is>
       </c>
@@ -564,9 +578,11 @@
           <t>Mythologie de la rose traduite en architecture et décoration</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On établit le nom de rose dans l'architecture des églises pour la baie en français, en anglais, en allemand, en espagnol, en portugais… Et tardivement au XVIe siècle le nom de cette baie dans le mur est remplacé par son nom vernaculaire de rosace. Mais si la culture locale du pays où cette architecture apparaît ensuite est basée sur des conceptions différentes d'architecture, le terme initialement retenu est plutôt le terme tardif de « rosace[5] » à la place de « rose », y compris en Italie qui avait rejeté l'art gothique. Une des raisons de l'abandon du terme de « rose » est que la rosace est issue de la représentation de plusieurs fleurs d'un point de vue de la science botanique : rose d'Israël, églantier, anémone, colchique… Elle se diversifie donc aussi en formes.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On établit le nom de rose dans l'architecture des églises pour la baie en français, en anglais, en allemand, en espagnol, en portugais… Et tardivement au XVIe siècle le nom de cette baie dans le mur est remplacé par son nom vernaculaire de rosace. Mais si la culture locale du pays où cette architecture apparaît ensuite est basée sur des conceptions différentes d'architecture, le terme initialement retenu est plutôt le terme tardif de « rosace » à la place de « rose », y compris en Italie qui avait rejeté l'art gothique. Une des raisons de l'abandon du terme de « rose » est que la rosace est issue de la représentation de plusieurs fleurs d'un point de vue de la science botanique : rose d'Israël, églantier, anémone, colchique… Elle se diversifie donc aussi en formes.
 L'architecture des mosquées porte ce motif floral de rosace en décor de ses voûtes sphériques.
 L'architecture des synagogues contemporaines aux États-Unis est aussi porteuse la rosace comme baie (lorsqu'elle ne figure pas l'étoile de David).
 En France, pays d'invention de la « rose » gothique, cette baie verticale originale au Moyen Âge (probablement partie de la reformulation de l'oculus selon une tournure nouvelle), la dénomination au XIXe siècle devient malgré tout la rosace.
@@ -605,11 +621,16 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les roses d'église
-La rosace doit être plus proprement appelée « rose » lorsqu'elle désigne une ouverture ou une fenêtre. Les roses de l'art gothique sont fabriquées à partir d'un dessin de l'architecte médiéval qui fait fabriquer une série d'éléments qui seront assemblées jointivement.
+          <t>Les roses d'église</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La rosace doit être plus proprement appelée « rose » lorsqu'elle désigne une ouverture ou une fenêtre. Les roses de l'art gothique sont fabriquées à partir d'un dessin de l'architecte médiéval qui fait fabriquer une série d'éléments qui seront assemblées jointivement.
 Les premières roses de façades sont celles de l'abbatiale de Saint-Denis et du transept de l'église Saint-Étienne de Beauvais, au milieu du XIIe siècle.
 Ensuite viennent les grandes roses du premier art gothique faites d'oculi juxtaposés à Lausanne et au transept de Laon, puis vers 1200 les roses à rayons comme celle de la façade de Notre-Dame de Paris : l'allusion à la roue est encore très proche avec le remplage de pierre rayonnant comme les raies d'un moyeu. Les roses de style gothique rayonnant sont les plus répandues et les plus connues ; elles sont constitués de remplages qui peuvent être retirés ou modifiés indépendamment de la structure du mur. Il convient de signaler que ces roses ont fait l'objet de profondes restaurations au XIXe siècle. Ainsi, les éléments originaux de celles du transept de Saint-Denis ont été déposés à l'intérieur de la basilique, ce qui permet de les observer de près.
-Les roses flamboyantes aux motifs évoquant des flammes sont particulièrement complexes et riches et ont attiré très tôt l'intérêt des historiens d'art pour la fin du Moyen Âge[7]. Les architectes Martin Chambiges et Pierre Ier Chambiges en ont fait en quelque sorte leur marque de fabrique dans leurs cathédrales de Sens, Beauvais, Troyes et Senlis.
+Les roses flamboyantes aux motifs évoquant des flammes sont particulièrement complexes et riches et ont attiré très tôt l'intérêt des historiens d'art pour la fin du Moyen Âge. Les architectes Martin Chambiges et Pierre Ier Chambiges en ont fait en quelque sorte leur marque de fabrique dans leurs cathédrales de Sens, Beauvais, Troyes et Senlis.
 </t>
         </is>
       </c>
